--- a/size_glacial/largebirds/Caracara/CARACARA_Raw.xlsx
+++ b/size_glacial/largebirds/Caracara/CARACARA_Raw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="21840" windowHeight="13740" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="13740" windowWidth="21840" xWindow="120" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,19 +528,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -553,15 +564,25 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -580,7 +601,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1365,8 +1386,8 @@
       <c:valAx>
         <c:axId val="60196352"/>
         <c:scaling>
+          <c:min val="50.000000"/>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1503,7 +1524,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2288,8 +2309,8 @@
       <c:valAx>
         <c:axId val="82309504"/>
         <c:scaling>
+          <c:max val="0.600000"/>
           <c:orientation val="minMax"/>
-          <c:max val="0.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2865,14 +2886,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:J157"/>
+      <selection pane="topLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2932,7 +2952,7 @@
         <v>13.86</v>
       </c>
       <c r="J2">
-        <v>8.8699999999999992</v>
+        <v>8.87</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2958,7 +2978,7 @@
         <v>5.18</v>
       </c>
       <c r="H3">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="I3">
         <v>14.6</v>
@@ -3022,13 +3042,13 @@
         <v>5.25</v>
       </c>
       <c r="H5">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="I5">
         <v>14.17</v>
       </c>
       <c r="J5">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3048,7 +3068,7 @@
         <v>14.4</v>
       </c>
       <c r="F6">
-        <v>8.0299999999999994</v>
+        <v>8.03</v>
       </c>
       <c r="G6">
         <v>5.99</v>
@@ -3060,7 +3080,7 @@
         <v>14.96</v>
       </c>
       <c r="J6">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3124,7 +3144,7 @@
         <v>13.68</v>
       </c>
       <c r="J8">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3156,7 +3176,7 @@
         <v>13.47</v>
       </c>
       <c r="J9">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3252,7 +3272,7 @@
         <v>13.99</v>
       </c>
       <c r="J12">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3278,13 +3298,13 @@
         <v>5.33</v>
       </c>
       <c r="H13">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="I13">
         <v>14.25</v>
       </c>
       <c r="J13">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3400,10 +3420,10 @@
         <v>13.54</v>
       </c>
       <c r="F17">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="G17">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="H17">
         <v>4.33</v>
@@ -3412,7 +3432,7 @@
         <v>13.57</v>
       </c>
       <c r="J17">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3435,7 +3455,7 @@
         <v>7.53</v>
       </c>
       <c r="G18">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="H18">
         <v>3.95</v>
@@ -3502,7 +3522,7 @@
         <v>5.56</v>
       </c>
       <c r="H20">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="I20">
         <v>13.39</v>
@@ -3572,7 +3592,7 @@
         <v>13.95</v>
       </c>
       <c r="J22">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3630,7 +3650,7 @@
         <v>5.55</v>
       </c>
       <c r="H24">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="I24">
         <v>13.97</v>
@@ -3662,7 +3682,7 @@
         <v>5.4</v>
       </c>
       <c r="H25">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I25">
         <v>13.98</v>
@@ -3720,13 +3740,13 @@
         <v>13.75</v>
       </c>
       <c r="F27">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="G27">
         <v>4.99</v>
       </c>
       <c r="H27">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="I27">
         <v>14.33</v>
@@ -3892,7 +3912,7 @@
         <v>14.98</v>
       </c>
       <c r="J32">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -4014,7 +4034,7 @@
         <v>5.23</v>
       </c>
       <c r="H36">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="I36">
         <v>13.86</v>
@@ -4075,7 +4095,7 @@
         <v>7.32</v>
       </c>
       <c r="G38">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="H38">
         <v>4.75</v>
@@ -4148,7 +4168,7 @@
         <v>13.98</v>
       </c>
       <c r="J40">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -4180,7 +4200,7 @@
         <v>14</v>
       </c>
       <c r="J41">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -4212,7 +4232,7 @@
         <v>14.75</v>
       </c>
       <c r="J42">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4273,7 +4293,7 @@
         <v>14.43</v>
       </c>
       <c r="J44">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -4331,7 +4351,7 @@
         <v>4.07</v>
       </c>
       <c r="H46">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="I46">
         <v>14.79</v>
@@ -4465,7 +4485,7 @@
         <v>13.45</v>
       </c>
       <c r="J50">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -4488,10 +4508,10 @@
         <v>6.8</v>
       </c>
       <c r="G51">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="H51">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="I51">
         <v>13.42</v>
@@ -4561,7 +4581,7 @@
         <v>16.16</v>
       </c>
       <c r="J53">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4616,7 +4636,7 @@
         <v>14.62</v>
       </c>
       <c r="G55">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="H55">
         <v>5.77</v>
@@ -4657,7 +4677,7 @@
         <v>14.48</v>
       </c>
       <c r="J56">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -4712,13 +4732,13 @@
         <v>7.6</v>
       </c>
       <c r="G58">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H58">
         <v>4.75</v>
       </c>
       <c r="J58">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -4846,7 +4866,7 @@
         <v>14.74</v>
       </c>
       <c r="J62">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4869,7 +4889,7 @@
         <v>6.8</v>
       </c>
       <c r="G63">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="H63">
         <v>3.96</v>
@@ -4878,7 +4898,7 @@
         <v>13.99</v>
       </c>
       <c r="J63">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4971,7 +4991,7 @@
         <v>14.73</v>
       </c>
       <c r="J66">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -5000,7 +5020,7 @@
         <v>14.05</v>
       </c>
       <c r="J67">
-        <v>8.0299999999999994</v>
+        <v>8.03</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -5029,7 +5049,7 @@
         <v>14.41</v>
       </c>
       <c r="J68">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -5087,7 +5107,7 @@
         <v>14.01</v>
       </c>
       <c r="J70">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -5168,7 +5188,7 @@
         <v>5.26</v>
       </c>
       <c r="H73">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="I73">
         <v>14.07</v>
@@ -5232,7 +5252,7 @@
         <v>13.01</v>
       </c>
       <c r="J75">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -5255,7 +5275,7 @@
         <v>5.27</v>
       </c>
       <c r="H76">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="I76">
         <v>13.92</v>
@@ -5313,7 +5333,7 @@
         <v>5.81</v>
       </c>
       <c r="H78">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="I78">
         <v>14.58</v>
@@ -5400,7 +5420,7 @@
         <v>5.33</v>
       </c>
       <c r="H81">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="I81">
         <v>14.3</v>
@@ -5435,7 +5455,7 @@
         <v>14.14</v>
       </c>
       <c r="J82">
-        <v>9.0500000000000007</v>
+        <v>9.05</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -5458,7 +5478,7 @@
         <v>5.38</v>
       </c>
       <c r="H83">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="I83">
         <v>14.74</v>
@@ -5516,7 +5536,7 @@
         <v>5.21</v>
       </c>
       <c r="H85">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="I85">
         <v>13.85</v>
@@ -5574,7 +5594,7 @@
         <v>5.73</v>
       </c>
       <c r="H87">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="I87">
         <v>14.42</v>
@@ -5725,7 +5745,7 @@
         <v>14.72</v>
       </c>
       <c r="J92">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -5748,7 +5768,7 @@
         <v>5.31</v>
       </c>
       <c r="H93">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="I93">
         <v>11.79</v>
@@ -5771,7 +5791,7 @@
         <v>14.2</v>
       </c>
       <c r="F94">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
       <c r="G94">
         <v>5.38</v>
@@ -5864,7 +5884,7 @@
         <v>5.36</v>
       </c>
       <c r="H97">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="I97">
         <v>13.98</v>
@@ -5948,10 +5968,10 @@
         <v>6.77</v>
       </c>
       <c r="G100">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="H100">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="I100">
         <v>13.98</v>
@@ -6006,7 +6026,7 @@
         <v>6.88</v>
       </c>
       <c r="G102">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="H102">
         <v>4.08</v>
@@ -6090,7 +6110,7 @@
         <v>14.25</v>
       </c>
       <c r="F105">
-        <v>8.0399999999999991</v>
+        <v>8.04</v>
       </c>
       <c r="G105">
         <v>5.19</v>
@@ -6160,7 +6180,7 @@
         <v>14.51</v>
       </c>
       <c r="J107">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -6212,7 +6232,7 @@
         <v>5.3</v>
       </c>
       <c r="H109">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I109">
         <v>13.96</v>
@@ -6241,7 +6261,7 @@
         <v>5.51</v>
       </c>
       <c r="H110">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="I110">
         <v>14.29</v>
@@ -6302,7 +6322,7 @@
         <v>14.28</v>
       </c>
       <c r="J112">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -6499,7 +6519,7 @@
         <v>5.19</v>
       </c>
       <c r="H119">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="I119">
         <v>13.7</v>
@@ -6638,7 +6658,7 @@
         <v>12.65</v>
       </c>
       <c r="F124">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="G124">
         <v>5.33</v>
@@ -6673,7 +6693,7 @@
         <v>5.27</v>
       </c>
       <c r="H125">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="I125">
         <v>14.5</v>
@@ -6818,7 +6838,7 @@
         <v>5.76</v>
       </c>
       <c r="H130">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="I130">
         <v>13.86</v>
@@ -6876,7 +6896,7 @@
         <v>5.41</v>
       </c>
       <c r="H132">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="I132">
         <v>13.45</v>
@@ -6963,13 +6983,13 @@
         <v>5.55</v>
       </c>
       <c r="H135">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="I135">
         <v>14.12</v>
       </c>
       <c r="J135">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -6992,7 +7012,7 @@
         <v>5.41</v>
       </c>
       <c r="H136">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="I136">
         <v>14.1</v>
@@ -7050,13 +7070,13 @@
         <v>5.64</v>
       </c>
       <c r="H138">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="I138">
         <v>14.85</v>
       </c>
       <c r="J138">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -7166,7 +7186,7 @@
         <v>5.88</v>
       </c>
       <c r="H142">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="I142">
         <v>14.51</v>
@@ -7192,7 +7212,7 @@
         <v>7.27</v>
       </c>
       <c r="G143">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="H143">
         <v>3.97</v>
@@ -7299,7 +7319,7 @@
         <v>14.04</v>
       </c>
       <c r="J147">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -7319,7 +7339,7 @@
         <v>6.96</v>
       </c>
       <c r="G148">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="H148">
         <v>3.97</v>
@@ -7348,10 +7368,10 @@
         <v>6.66</v>
       </c>
       <c r="G149">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="H149">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="I149">
         <v>13.89</v>
@@ -7386,7 +7406,7 @@
         <v>13.92</v>
       </c>
       <c r="J150">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -7415,7 +7435,7 @@
         <v>14.28</v>
       </c>
       <c r="J151">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -7444,7 +7464,7 @@
         <v>15.19</v>
       </c>
       <c r="J152">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -7583,13 +7603,13 @@
         <v>4.96</v>
       </c>
       <c r="H157">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="I157">
         <v>13.81</v>
       </c>
       <c r="J157">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -7628,14 +7648,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView topLeftCell="A73" workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7698,15 +7717,15 @@
         <v>13.86</v>
       </c>
       <c r="I2">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="K2">
+        <v>8.87</v>
+      </c>
+      <c r="K2" s="0">
         <f>L2/C2</f>
-        <v>0.21513741833746342</v>
-      </c>
-      <c r="L2">
+        <v>0.215137418337463</v>
+      </c>
+      <c r="L2" s="0">
         <f>F2*G2</f>
-        <v>19.099900000000002</v>
+        <v>19.0999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7729,7 +7748,7 @@
         <v>5.18</v>
       </c>
       <c r="G3">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H3">
         <v>14.6</v>
@@ -7740,13 +7759,13 @@
       <c r="J3">
         <v>18</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">L3/C3</f>
-        <v>0.29316239316239318</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">F3*G3</f>
-        <v>25.382000000000001</v>
+      <c r="K3" s="0">
+        <f>L3/C3</f>
+        <v>0.293162393162393</v>
+      </c>
+      <c r="L3" s="0">
+        <f>F3*G3</f>
+        <v>25.382</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7780,12 +7799,12 @@
       <c r="J4">
         <v>18</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.24740484429065743</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
+      <c r="K4" s="0">
+        <f>L4/C4</f>
+        <v>0.247404844290657</v>
+      </c>
+      <c r="L4" s="0">
+        <f>F4*G4</f>
         <v>21.45</v>
       </c>
     </row>
@@ -7809,24 +7828,24 @@
         <v>5.25</v>
       </c>
       <c r="G5">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="H5">
         <v>14.17</v>
       </c>
       <c r="I5">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="J5">
         <v>18</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0.26151707704527405</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>23.047499999999999</v>
+      <c r="K5" s="0">
+        <f>L5/C5</f>
+        <v>0.261517077045274</v>
+      </c>
+      <c r="L5" s="0">
+        <f>F5*G5</f>
+        <v>23.0475</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7843,7 +7862,7 @@
         <v>14.4</v>
       </c>
       <c r="E6">
-        <v>8.0299999999999994</v>
+        <v>8.03</v>
       </c>
       <c r="F6">
         <v>5.99</v>
@@ -7855,18 +7874,18 @@
         <v>14.96</v>
       </c>
       <c r="I6">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="J6">
         <v>18</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0.36110408670128696</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>31.986599999999999</v>
+      <c r="K6" s="0">
+        <f>L6/C6</f>
+        <v>0.361104086701287</v>
+      </c>
+      <c r="L6" s="0">
+        <f>F6*G6</f>
+        <v>31.9866</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7900,13 +7919,13 @@
       <c r="J7">
         <v>18</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0.34685388021440228</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>29.767000000000003</v>
+      <c r="K7" s="0">
+        <f>L7/C7</f>
+        <v>0.346853880214402</v>
+      </c>
+      <c r="L7" s="0">
+        <f>F7*G7</f>
+        <v>29.767</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7935,18 +7954,18 @@
         <v>13.68</v>
       </c>
       <c r="I8">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="J8">
         <v>18</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0.26129333488969303</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>22.385000000000002</v>
+      <c r="K8" s="0">
+        <f>L8/C8</f>
+        <v>0.261293334889693</v>
+      </c>
+      <c r="L8" s="0">
+        <f>F8*G8</f>
+        <v>22.385</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7975,18 +7994,18 @@
         <v>13.47</v>
       </c>
       <c r="I9">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
       <c r="J9">
         <v>18</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.31476336064571359</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>25.738199999999999</v>
+      <c r="K9" s="0">
+        <f>L9/C9</f>
+        <v>0.314763360645714</v>
+      </c>
+      <c r="L9" s="0">
+        <f>F9*G9</f>
+        <v>25.7382</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -8020,13 +8039,13 @@
       <c r="J10">
         <v>18</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0.32186858316221773</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>28.215000000000003</v>
+      <c r="K10" s="0">
+        <f>L10/C10</f>
+        <v>0.321868583162218</v>
+      </c>
+      <c r="L10" s="0">
+        <f>F10*G10</f>
+        <v>28.215</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8060,13 +8079,13 @@
       <c r="J11">
         <v>18</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.23701277955271563</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>20.771799999999999</v>
+      <c r="K11" s="0">
+        <f>L11/C11</f>
+        <v>0.237012779552716</v>
+      </c>
+      <c r="L11" s="0">
+        <f>F11*G11</f>
+        <v>20.7718</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8095,18 +8114,18 @@
         <v>13.99</v>
       </c>
       <c r="I12">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="J12">
         <v>18</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0.23874597713905224</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>21.513399999999997</v>
+      <c r="K12" s="0">
+        <f>L12/C12</f>
+        <v>0.238745977139052</v>
+      </c>
+      <c r="L12" s="0">
+        <f>F12*G12</f>
+        <v>21.5134</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8129,24 +8148,24 @@
         <v>5.33</v>
       </c>
       <c r="G13">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="H13">
         <v>14.25</v>
       </c>
       <c r="I13">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="J13">
         <v>18</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0.25284044891819968</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>21.852999999999998</v>
+      <c r="K13" s="0">
+        <f>L13/C13</f>
+        <v>0.2528404489182</v>
+      </c>
+      <c r="L13" s="0">
+        <f>F13*G13</f>
+        <v>21.853</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8180,12 +8199,12 @@
       <c r="J14">
         <v>18</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0.26706737425011534</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
+      <c r="K14" s="0">
+        <f>L14/C14</f>
+        <v>0.267067374250115</v>
+      </c>
+      <c r="L14" s="0">
+        <f>F14*G14</f>
         <v>23.1494</v>
       </c>
     </row>
@@ -8220,13 +8239,13 @@
       <c r="J15">
         <v>18</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0.2388293926750116</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>20.606200000000001</v>
+      <c r="K15" s="0">
+        <f>L15/C15</f>
+        <v>0.238829392675012</v>
+      </c>
+      <c r="L15" s="0">
+        <f>F15*G15</f>
+        <v>20.6062</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8260,12 +8279,12 @@
       <c r="J16">
         <v>18</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0.28564899451553932</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
+      <c r="K16" s="0">
+        <f>L16/C16</f>
+        <v>0.285648994515539</v>
+      </c>
+      <c r="L16" s="0">
+        <f>F16*G16</f>
         <v>25</v>
       </c>
     </row>
@@ -8283,10 +8302,10 @@
         <v>13.54</v>
       </c>
       <c r="E17">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="F17">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="G17">
         <v>4.33</v>
@@ -8295,18 +8314,18 @@
         <v>13.57</v>
       </c>
       <c r="I17">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="J17">
         <v>18</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>0.23653028176616644</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>21.909799999999997</v>
+      <c r="K17" s="0">
+        <f>L17/C17</f>
+        <v>0.236530281766166</v>
+      </c>
+      <c r="L17" s="0">
+        <f>F17*G17</f>
+        <v>21.9098</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -8326,7 +8345,7 @@
         <v>7.53</v>
       </c>
       <c r="F18">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="G18">
         <v>3.95</v>
@@ -8340,13 +8359,13 @@
       <c r="J18">
         <v>18</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0.19826091609589042</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>18.525500000000001</v>
+      <c r="K18" s="0">
+        <f>L18/C18</f>
+        <v>0.19826091609589</v>
+      </c>
+      <c r="L18" s="0">
+        <f>F18*G18</f>
+        <v>18.5255</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -8380,13 +8399,13 @@
       <c r="J19">
         <v>18</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>0.25668422312664585</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>21.443399999999997</v>
+      <c r="K19" s="0">
+        <f>L19/C19</f>
+        <v>0.256684223126646</v>
+      </c>
+      <c r="L19" s="0">
+        <f>F19*G19</f>
+        <v>21.4434</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -8409,7 +8428,7 @@
         <v>5.56</v>
       </c>
       <c r="G20">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="H20">
         <v>13.39</v>
@@ -8420,13 +8439,13 @@
       <c r="J20">
         <v>18</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>0.3005907925537844</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>26.965999999999998</v>
+      <c r="K20" s="0">
+        <f>L20/C20</f>
+        <v>0.300590792553784</v>
+      </c>
+      <c r="L20" s="0">
+        <f>F20*G20</f>
+        <v>26.966</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -8460,13 +8479,13 @@
       <c r="J21">
         <v>18</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0.28713453631795338</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>25.141500000000001</v>
+      <c r="K21" s="0">
+        <f>L21/C21</f>
+        <v>0.287134536317953</v>
+      </c>
+      <c r="L21" s="0">
+        <f>F21*G21</f>
+        <v>25.1415</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -8495,18 +8514,18 @@
         <v>13.95</v>
       </c>
       <c r="I22">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0.25980405254954353</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>23.335599999999999</v>
+      <c r="K22" s="0">
+        <f>L22/C22</f>
+        <v>0.259804052549544</v>
+      </c>
+      <c r="L22" s="0">
+        <f>F22*G22</f>
+        <v>23.3356</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -8540,12 +8559,12 @@
       <c r="J23">
         <v>18</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0.23146159153633858</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
+      <c r="K23" s="0">
+        <f>L23/C23</f>
+        <v>0.231461591536339</v>
+      </c>
+      <c r="L23" s="0">
+        <f>F23*G23</f>
         <v>20.1279</v>
       </c>
     </row>
@@ -8569,7 +8588,7 @@
         <v>5.55</v>
       </c>
       <c r="G24">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="H24">
         <v>13.97</v>
@@ -8580,13 +8599,13 @@
       <c r="J24">
         <v>18</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0.26434412642280913</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>23.920499999999997</v>
+      <c r="K24" s="0">
+        <f>L24/C24</f>
+        <v>0.264344126422809</v>
+      </c>
+      <c r="L24" s="0">
+        <f>F24*G24</f>
+        <v>23.9205</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -8609,7 +8628,7 @@
         <v>5.4</v>
       </c>
       <c r="G25">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H25">
         <v>13.98</v>
@@ -8620,13 +8639,13 @@
       <c r="J25">
         <v>18</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0.27101631116687586</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>23.760000000000005</v>
+      <c r="K25" s="0">
+        <f>L25/C25</f>
+        <v>0.271016311166876</v>
+      </c>
+      <c r="L25" s="0">
+        <f>F25*G25</f>
+        <v>23.76</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -8660,12 +8679,12 @@
       <c r="J26">
         <v>18</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>0.31362125045175276</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
+      <c r="K26" s="0">
+        <f>L26/C26</f>
+        <v>0.313621250451753</v>
+      </c>
+      <c r="L26" s="0">
+        <f>F26*G26</f>
         <v>26.0337</v>
       </c>
     </row>
@@ -8683,13 +8702,13 @@
         <v>13.75</v>
       </c>
       <c r="E27">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="F27">
         <v>4.99</v>
       </c>
       <c r="G27">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="H27">
         <v>14.33</v>
@@ -8700,12 +8719,12 @@
       <c r="J27">
         <v>18</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>0.2612928637627433</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
+      <c r="K27" s="0">
+        <f>L27/C27</f>
+        <v>0.261292863762743</v>
+      </c>
+      <c r="L27" s="0">
+        <f>F27*G27</f>
         <v>22.5548</v>
       </c>
     </row>
@@ -8740,13 +8759,13 @@
       <c r="J28">
         <v>18</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>0.28890428617466962</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>26.894099999999998</v>
+      <c r="K28" s="0">
+        <f>L28/C28</f>
+        <v>0.28890428617467</v>
+      </c>
+      <c r="L28" s="0">
+        <f>F28*G28</f>
+        <v>26.8941</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -8780,13 +8799,13 @@
       <c r="J29">
         <v>18</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0.30371645203995667</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>25.235800000000001</v>
+      <c r="K29" s="0">
+        <f>L29/C29</f>
+        <v>0.303716452039957</v>
+      </c>
+      <c r="L29" s="0">
+        <f>F29*G29</f>
+        <v>25.2358</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8820,13 +8839,13 @@
       <c r="J30">
         <v>18</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>0.35554073033707861</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>30.377399999999998</v>
+      <c r="K30" s="0">
+        <f>L30/C30</f>
+        <v>0.355540730337079</v>
+      </c>
+      <c r="L30" s="0">
+        <f>F30*G30</f>
+        <v>30.3774</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -8860,13 +8879,13 @@
       <c r="J31">
         <v>18</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>0.27256587762393925</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>24.411000000000001</v>
+      <c r="K31" s="0">
+        <f>L31/C31</f>
+        <v>0.272565877623939</v>
+      </c>
+      <c r="L31" s="0">
+        <f>F31*G31</f>
+        <v>24.411</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -8895,17 +8914,17 @@
         <v>14.98</v>
       </c>
       <c r="I32">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="J32">
         <v>18</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>0.30203310795057126</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
+      <c r="K32" s="0">
+        <f>L32/C32</f>
+        <v>0.302033107950571</v>
+      </c>
+      <c r="L32" s="0">
+        <f>F32*G32</f>
         <v>25.9084</v>
       </c>
     </row>
@@ -8940,13 +8959,13 @@
       <c r="J33">
         <v>18</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>0.22827456350564876</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>20.003699999999998</v>
+      <c r="K33" s="0">
+        <f>L33/C33</f>
+        <v>0.228274563505649</v>
+      </c>
+      <c r="L33" s="0">
+        <f>F33*G33</f>
+        <v>20.0037</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -8980,13 +8999,13 @@
       <c r="J34">
         <v>18</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>0.14749914354230903</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
-        <v>12.916500000000001</v>
+      <c r="K34" s="0">
+        <f>L34/C34</f>
+        <v>0.147499143542309</v>
+      </c>
+      <c r="L34" s="0">
+        <f>F34*G34</f>
+        <v>12.9165</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -9020,13 +9039,13 @@
       <c r="J35">
         <v>18</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>0.27023729946524067</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
-        <v>24.256500000000003</v>
+      <c r="K35" s="0">
+        <f>L35/C35</f>
+        <v>0.270237299465241</v>
+      </c>
+      <c r="L35" s="0">
+        <f>F35*G35</f>
+        <v>24.2565</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -9049,7 +9068,7 @@
         <v>5.23</v>
       </c>
       <c r="G36">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="H36">
         <v>13.86</v>
@@ -9060,13 +9079,13 @@
       <c r="J36">
         <v>18</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>0.25909985624239745</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>23.430400000000006</v>
+      <c r="K36" s="0">
+        <f>L36/C36</f>
+        <v>0.259099856242397</v>
+      </c>
+      <c r="L36" s="0">
+        <f>F36*G36</f>
+        <v>23.4304</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -9100,12 +9119,12 @@
       <c r="J37">
         <v>18</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="0"/>
-        <v>0.28781697905181919</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="1"/>
+      <c r="K37" s="0">
+        <f>L37/C37</f>
+        <v>0.287816979051819</v>
+      </c>
+      <c r="L37" s="0">
+        <f>F37*G37</f>
         <v>26.105</v>
       </c>
     </row>
@@ -9126,7 +9145,7 @@
         <v>7.32</v>
       </c>
       <c r="F38">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="G38">
         <v>4.75</v>
@@ -9140,13 +9159,13 @@
       <c r="J38">
         <v>18</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>0.23619666256019714</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="1"/>
-        <v>21.090000000000003</v>
+      <c r="K38" s="0">
+        <f>L38/C38</f>
+        <v>0.236196662560197</v>
+      </c>
+      <c r="L38" s="0">
+        <f>F38*G38</f>
+        <v>21.09</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -9180,13 +9199,13 @@
       <c r="J39">
         <v>18</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>0.27562195518025329</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="1"/>
-        <v>25.459199999999999</v>
+      <c r="K39" s="0">
+        <f>L39/C39</f>
+        <v>0.275621955180253</v>
+      </c>
+      <c r="L39" s="0">
+        <f>F39*G39</f>
+        <v>25.4592</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -9215,18 +9234,18 @@
         <v>13.98</v>
       </c>
       <c r="I40">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
       <c r="J40">
         <v>18</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="0"/>
-        <v>0.23122403888643395</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="1"/>
-        <v>20.930399999999999</v>
+      <c r="K40" s="0">
+        <f>L40/C40</f>
+        <v>0.231224038886434</v>
+      </c>
+      <c r="L40" s="0">
+        <f>F40*G40</f>
+        <v>20.9304</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -9255,18 +9274,18 @@
         <v>14</v>
       </c>
       <c r="I41">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
       <c r="J41">
         <v>16</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="0"/>
-        <v>0.25545434446164056</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="1"/>
-        <v>23.108400000000003</v>
+      <c r="K41" s="0">
+        <f>L41/C41</f>
+        <v>0.255454344461641</v>
+      </c>
+      <c r="L41" s="0">
+        <f>F41*G41</f>
+        <v>23.1084</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -9295,18 +9314,18 @@
         <v>14.75</v>
       </c>
       <c r="I42">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
       <c r="J42">
         <v>16</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="0"/>
-        <v>0.25895791583166333</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="1"/>
-        <v>23.259599999999999</v>
+      <c r="K42" s="0">
+        <f>L42/C42</f>
+        <v>0.258957915831663</v>
+      </c>
+      <c r="L42" s="0">
+        <f>F42*G42</f>
+        <v>23.2596</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -9337,13 +9356,13 @@
       <c r="J43">
         <v>9</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="0"/>
-        <v>0.26521543408360126</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="1"/>
-        <v>24.744599999999998</v>
+      <c r="K43" s="0">
+        <f>L43/C43</f>
+        <v>0.265215434083601</v>
+      </c>
+      <c r="L43" s="0">
+        <f>F43*G43</f>
+        <v>24.7446</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -9372,18 +9391,18 @@
         <v>14.43</v>
       </c>
       <c r="I44">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="J44">
         <v>9</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="0"/>
-        <v>0.27119393282773568</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="1"/>
-        <v>25.031200000000002</v>
+      <c r="K44" s="0">
+        <f>L44/C44</f>
+        <v>0.271193932827736</v>
+      </c>
+      <c r="L44" s="0">
+        <f>F44*G44</f>
+        <v>25.0312</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -9417,13 +9436,13 @@
       <c r="J45">
         <v>9</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>0.24179423868312758</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="1"/>
-        <v>20.564599999999999</v>
+      <c r="K45" s="0">
+        <f>L45/C45</f>
+        <v>0.241794238683128</v>
+      </c>
+      <c r="L45" s="0">
+        <f>F45*G45</f>
+        <v>20.5646</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -9446,7 +9465,7 @@
         <v>4.07</v>
       </c>
       <c r="G46">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="H46">
         <v>14.79</v>
@@ -9457,13 +9476,13 @@
       <c r="J46">
         <v>9</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="0"/>
-        <v>0.19616626133097509</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="1"/>
-        <v>17.745200000000004</v>
+      <c r="K46" s="0">
+        <f>L46/C46</f>
+        <v>0.196166261330975</v>
+      </c>
+      <c r="L46" s="0">
+        <f>F46*G46</f>
+        <v>17.7452</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -9497,13 +9516,13 @@
       <c r="J47">
         <v>16</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>0.24602234258632361</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="1"/>
-        <v>21.802499999999998</v>
+      <c r="K47" s="0">
+        <f>L47/C47</f>
+        <v>0.246022342586324</v>
+      </c>
+      <c r="L47" s="0">
+        <f>F47*G47</f>
+        <v>21.8025</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -9537,13 +9556,13 @@
       <c r="J48">
         <v>16</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="0"/>
-        <v>0.18044678940278402</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="1"/>
-        <v>16.074200000000001</v>
+      <c r="K48" s="0">
+        <f>L48/C48</f>
+        <v>0.180446789402784</v>
+      </c>
+      <c r="L48" s="0">
+        <f>F48*G48</f>
+        <v>16.0742</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -9577,12 +9596,12 @@
       <c r="J49">
         <v>16</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="0"/>
-        <v>0.24322485542578523</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="1"/>
+      <c r="K49" s="0">
+        <f>L49/C49</f>
+        <v>0.243224855425785</v>
+      </c>
+      <c r="L49" s="0">
+        <f>F49*G49</f>
         <v>21.45</v>
       </c>
     </row>
@@ -9612,17 +9631,17 @@
         <v>13.45</v>
       </c>
       <c r="I50">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="J50">
         <v>16</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="0"/>
-        <v>0.28597190756683277</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="1"/>
+      <c r="K50" s="0">
+        <f>L50/C50</f>
+        <v>0.285971907566833</v>
+      </c>
+      <c r="L50" s="0">
+        <f>F50*G50</f>
         <v>25.2456</v>
       </c>
     </row>
@@ -9643,10 +9662,10 @@
         <v>6.8</v>
       </c>
       <c r="F51">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="G51">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="H51">
         <v>13.42</v>
@@ -9657,13 +9676,13 @@
       <c r="J51">
         <v>16</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
-        <v>0.25412921348314615</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="1"/>
-        <v>21.712800000000005</v>
+      <c r="K51" s="0">
+        <f>L51/C51</f>
+        <v>0.254129213483146</v>
+      </c>
+      <c r="L51" s="0">
+        <f>F51*G51</f>
+        <v>21.7128</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -9697,13 +9716,13 @@
       <c r="J52">
         <v>16</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="0"/>
-        <v>0.24495153381229329</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="1"/>
-        <v>21.479799999999997</v>
+      <c r="K52" s="0">
+        <f>L52/C52</f>
+        <v>0.244951533812293</v>
+      </c>
+      <c r="L52" s="0">
+        <f>F52*G52</f>
+        <v>21.4798</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -9732,18 +9751,18 @@
         <v>16.16</v>
       </c>
       <c r="I53">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="J53">
         <v>16</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="0"/>
-        <v>0.28407766990291261</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="1"/>
-        <v>25.748799999999999</v>
+      <c r="K53" s="0">
+        <f>L53/C53</f>
+        <v>0.284077669902913</v>
+      </c>
+      <c r="L53" s="0">
+        <f>F53*G53</f>
+        <v>25.7488</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -9777,13 +9796,13 @@
       <c r="J54">
         <v>16</v>
       </c>
-      <c r="K54">
-        <f t="shared" si="0"/>
-        <v>0.26638190954773866</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="1"/>
-        <v>23.324399999999997</v>
+      <c r="K54" s="0">
+        <f>L54/C54</f>
+        <v>0.266381909547739</v>
+      </c>
+      <c r="L54" s="0">
+        <f>F54*G54</f>
+        <v>23.3244</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -9803,7 +9822,7 @@
         <v>14.62</v>
       </c>
       <c r="F55">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="G55">
         <v>5.77</v>
@@ -9817,13 +9836,13 @@
       <c r="J55">
         <v>16</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="0"/>
-        <v>0.30565810854728626</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
-        <v>28.215299999999996</v>
+      <c r="K55" s="0">
+        <f>L55/C55</f>
+        <v>0.305658108547286</v>
+      </c>
+      <c r="L55" s="0">
+        <f>F55*G55</f>
+        <v>28.2153</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -9852,17 +9871,17 @@
         <v>14.48</v>
       </c>
       <c r="I56">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="J56">
         <v>16</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="0"/>
-        <v>0.23660101792431956</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="1"/>
+      <c r="K56" s="0">
+        <f>L56/C56</f>
+        <v>0.23660101792432</v>
+      </c>
+      <c r="L56" s="0">
+        <f>F56*G56</f>
         <v>21.384</v>
       </c>
     </row>
@@ -9897,13 +9916,13 @@
       <c r="J57">
         <v>16</v>
       </c>
-      <c r="K57">
-        <f t="shared" si="0"/>
-        <v>0.35049120402101891</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="1"/>
-        <v>30.681999999999999</v>
+      <c r="K57" s="0">
+        <f>L57/C57</f>
+        <v>0.350491204021019</v>
+      </c>
+      <c r="L57" s="0">
+        <f>F57*G57</f>
+        <v>30.682</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -9923,24 +9942,24 @@
         <v>7.6</v>
       </c>
       <c r="F58">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="G58">
         <v>4.75</v>
       </c>
       <c r="I58">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="J58">
         <v>16</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="0"/>
-        <v>0.29485150925024339</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="1"/>
-        <v>24.224999999999998</v>
+      <c r="K58" s="0">
+        <f>L58/C58</f>
+        <v>0.294851509250243</v>
+      </c>
+      <c r="L58" s="0">
+        <f>F58*G58</f>
+        <v>24.225</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -9974,13 +9993,13 @@
       <c r="J59">
         <v>16</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="0"/>
-        <v>0.33077897252090804</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="1"/>
-        <v>27.686200000000003</v>
+      <c r="K59" s="0">
+        <f>L59/C59</f>
+        <v>0.330778972520908</v>
+      </c>
+      <c r="L59" s="0">
+        <f>F59*G59</f>
+        <v>27.6862</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -10014,12 +10033,12 @@
       <c r="J60">
         <v>16</v>
       </c>
-      <c r="K60">
-        <f t="shared" si="0"/>
-        <v>0.29193967029112594</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="1"/>
+      <c r="K60" s="0">
+        <f>L60/C60</f>
+        <v>0.291939670291126</v>
+      </c>
+      <c r="L60" s="0">
+        <f>F60*G60</f>
         <v>24.9696</v>
       </c>
     </row>
@@ -10054,13 +10073,13 @@
       <c r="J61">
         <v>16</v>
       </c>
-      <c r="K61">
-        <f t="shared" si="0"/>
-        <v>0.27147489901904204</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="1"/>
-        <v>23.523299999999995</v>
+      <c r="K61" s="0">
+        <f>L61/C61</f>
+        <v>0.271474899019042</v>
+      </c>
+      <c r="L61" s="0">
+        <f>F61*G61</f>
+        <v>23.5233</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -10089,18 +10108,18 @@
         <v>14.74</v>
       </c>
       <c r="I62">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="J62">
         <v>16</v>
       </c>
-      <c r="K62">
-        <f t="shared" si="0"/>
-        <v>0.28884493497978364</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="1"/>
-        <v>26.432200000000002</v>
+      <c r="K62" s="0">
+        <f>L62/C62</f>
+        <v>0.288844934979784</v>
+      </c>
+      <c r="L62" s="0">
+        <f>F62*G62</f>
+        <v>26.4322</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -10120,7 +10139,7 @@
         <v>6.8</v>
       </c>
       <c r="F63">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="G63">
         <v>3.96</v>
@@ -10129,18 +10148,18 @@
         <v>13.99</v>
       </c>
       <c r="I63">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
       <c r="J63">
         <v>16</v>
       </c>
-      <c r="K63">
-        <f t="shared" si="0"/>
-        <v>0.20936083868785935</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="1"/>
-        <v>18.572400000000002</v>
+      <c r="K63" s="0">
+        <f>L63/C63</f>
+        <v>0.209360838687859</v>
+      </c>
+      <c r="L63" s="0">
+        <f>F63*G63</f>
+        <v>18.5724</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -10174,13 +10193,13 @@
       <c r="J64">
         <v>16</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="0"/>
-        <v>0.2118955950628468</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="1"/>
-        <v>18.712500000000002</v>
+      <c r="K64" s="0">
+        <f>L64/C64</f>
+        <v>0.211895595062847</v>
+      </c>
+      <c r="L64" s="0">
+        <f>F64*G64</f>
+        <v>18.7125</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -10214,13 +10233,13 @@
       <c r="J65">
         <v>16</v>
       </c>
-      <c r="K65">
-        <f t="shared" si="0"/>
-        <v>0.2302239140170175</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="1"/>
-        <v>20.563600000000001</v>
+      <c r="K65" s="0">
+        <f>L65/C65</f>
+        <v>0.230223914017018</v>
+      </c>
+      <c r="L65" s="0">
+        <f>F65*G65</f>
+        <v>20.5636</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -10243,24 +10262,24 @@
         <v>5.64</v>
       </c>
       <c r="G66">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="H66">
         <v>14.85</v>
       </c>
       <c r="I66">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="J66">
         <v>21</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="0"/>
-        <v>0.2999460310321565</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="1"/>
-        <v>26.677199999999999</v>
+      <c r="K66" s="0">
+        <f>L66/C66</f>
+        <v>0.299946031032156</v>
+      </c>
+      <c r="L66" s="0">
+        <f>F66*G66</f>
+        <v>26.6772</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -10294,13 +10313,13 @@
       <c r="J67">
         <v>21</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K84" si="2">L67/C67</f>
-        <v>0.27159090909090911</v>
-      </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L84" si="3">F67*G67</f>
-        <v>25.095000000000002</v>
+      <c r="K67" s="0">
+        <f>L67/C67</f>
+        <v>0.271590909090909</v>
+      </c>
+      <c r="L67" s="0">
+        <f>F67*G67</f>
+        <v>25.095</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -10334,13 +10353,13 @@
       <c r="J68">
         <v>21</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="2"/>
-        <v>0.27746491728465483</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="3"/>
-        <v>24.319799999999997</v>
+      <c r="K68" s="0">
+        <f>L68/C68</f>
+        <v>0.277464917284655</v>
+      </c>
+      <c r="L68" s="0">
+        <f>F68*G68</f>
+        <v>24.3198</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -10374,13 +10393,13 @@
       <c r="J69">
         <v>11</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="2"/>
-        <v>0.27781662504459503</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="3"/>
-        <v>23.361599999999999</v>
+      <c r="K69" s="0">
+        <f>L69/C69</f>
+        <v>0.277816625044595</v>
+      </c>
+      <c r="L69" s="0">
+        <f>F69*G69</f>
+        <v>23.3616</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -10403,7 +10422,7 @@
         <v>5.88</v>
       </c>
       <c r="G70">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="H70">
         <v>14.51</v>
@@ -10414,13 +10433,13 @@
       <c r="J70">
         <v>11</v>
       </c>
-      <c r="K70">
-        <f t="shared" si="2"/>
-        <v>0.32360183066361553</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="3"/>
-        <v>28.282799999999998</v>
+      <c r="K70" s="0">
+        <f>L70/C70</f>
+        <v>0.323601830663616</v>
+      </c>
+      <c r="L70" s="0">
+        <f>F70*G70</f>
+        <v>28.2828</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -10439,8 +10458,8 @@
       <c r="E71">
         <v>7.27</v>
       </c>
-      <c r="F71">
-        <v>4.8899999999999997</v>
+      <c r="F71" s="0">
+        <v>4.89</v>
       </c>
       <c r="G71">
         <v>3.97</v>
@@ -10454,12 +10473,12 @@
       <c r="J71">
         <v>11</v>
       </c>
-      <c r="K71">
-        <f t="shared" si="2"/>
-        <v>0.2176134962448156</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="3"/>
+      <c r="K71" s="0">
+        <f>L71/C71</f>
+        <v>0.217613496244816</v>
+      </c>
+      <c r="L71" s="0">
+        <f>F71*G71</f>
         <v>19.4133</v>
       </c>
     </row>
@@ -10494,12 +10513,12 @@
       <c r="J72">
         <v>11</v>
       </c>
-      <c r="K72">
-        <f t="shared" si="2"/>
-        <v>0.22603981020715197</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="3"/>
+      <c r="K72" s="0">
+        <f>L72/C72</f>
+        <v>0.226039810207152</v>
+      </c>
+      <c r="L72" s="0">
+        <f>F72*G72</f>
         <v>19.5321</v>
       </c>
     </row>
@@ -10534,13 +10553,13 @@
       <c r="J73">
         <v>11</v>
       </c>
-      <c r="K73">
-        <f t="shared" si="2"/>
-        <v>0.28818323499944337</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="3"/>
-        <v>25.887499999999999</v>
+      <c r="K73" s="0">
+        <f>L73/C73</f>
+        <v>0.288183234999443</v>
+      </c>
+      <c r="L73" s="0">
+        <f>F73*G73</f>
+        <v>25.8875</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -10569,18 +10588,18 @@
         <v>14.04</v>
       </c>
       <c r="I74">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
       <c r="J74">
         <v>11</v>
       </c>
-      <c r="K74">
-        <f t="shared" si="2"/>
-        <v>0.2416059078654319</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="3"/>
-        <v>20.611399999999996</v>
+      <c r="K74" s="0">
+        <f>L74/C74</f>
+        <v>0.241605907865432</v>
+      </c>
+      <c r="L74" s="0">
+        <f>F74*G74</f>
+        <v>20.6114</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -10600,7 +10619,7 @@
         <v>6.96</v>
       </c>
       <c r="F75">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="G75">
         <v>3.97</v>
@@ -10614,13 +10633,13 @@
       <c r="J75">
         <v>11</v>
       </c>
-      <c r="K75">
-        <f t="shared" si="2"/>
-        <v>0.22927051671732523</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="3"/>
-        <v>19.611800000000002</v>
+      <c r="K75" s="0">
+        <f>L75/C75</f>
+        <v>0.229270516717325</v>
+      </c>
+      <c r="L75" s="0">
+        <f>F75*G75</f>
+        <v>19.6118</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -10640,10 +10659,10 @@
         <v>6.66</v>
       </c>
       <c r="F76">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="G76">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="H76">
         <v>13.89</v>
@@ -10654,12 +10673,12 @@
       <c r="J76">
         <v>35</v>
       </c>
-      <c r="K76">
-        <f t="shared" si="2"/>
-        <v>0.23291402923236276</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="3"/>
+      <c r="K76" s="0">
+        <f>L76/C76</f>
+        <v>0.232914029232363</v>
+      </c>
+      <c r="L76" s="0">
+        <f>F76*G76</f>
         <v>20.2379</v>
       </c>
     </row>
@@ -10689,17 +10708,17 @@
         <v>13.92</v>
       </c>
       <c r="I77">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="J77">
         <v>35</v>
       </c>
-      <c r="K77">
-        <f t="shared" si="2"/>
-        <v>0.26804783092324802</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="3"/>
+      <c r="K77" s="0">
+        <f>L77/C77</f>
+        <v>0.268047830923248</v>
+      </c>
+      <c r="L77" s="0">
+        <f>F77*G77</f>
         <v>24.0975</v>
       </c>
     </row>
@@ -10729,18 +10748,18 @@
         <v>14.28</v>
       </c>
       <c r="I78">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
       <c r="J78">
         <v>35</v>
       </c>
-      <c r="K78">
-        <f t="shared" si="2"/>
-        <v>0.34754524886877824</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="3"/>
-        <v>30.722999999999999</v>
+      <c r="K78" s="0">
+        <f>L78/C78</f>
+        <v>0.347545248868778</v>
+      </c>
+      <c r="L78" s="0">
+        <f>F78*G78</f>
+        <v>30.723</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -10769,18 +10788,18 @@
         <v>15.19</v>
       </c>
       <c r="I79">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="J79">
         <v>35</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="2"/>
-        <v>0.28287614926987559</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="3"/>
-        <v>26.151900000000001</v>
+      <c r="K79" s="0">
+        <f>L79/C79</f>
+        <v>0.282876149269876</v>
+      </c>
+      <c r="L79" s="0">
+        <f>F79*G79</f>
+        <v>26.1519</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -10814,13 +10833,13 @@
       <c r="J80">
         <v>29</v>
       </c>
-      <c r="K80">
-        <f t="shared" si="2"/>
-        <v>0.30971559633027523</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="3"/>
-        <v>27.007200000000001</v>
+      <c r="K80" s="0">
+        <f>L80/C80</f>
+        <v>0.309715596330275</v>
+      </c>
+      <c r="L80" s="0">
+        <f>F80*G80</f>
+        <v>27.0072</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -10854,12 +10873,12 @@
       <c r="J81">
         <v>29</v>
       </c>
-      <c r="K81">
-        <f t="shared" si="2"/>
-        <v>0.22616580310880827</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="3"/>
+      <c r="K81" s="0">
+        <f>L81/C81</f>
+        <v>0.226165803108808</v>
+      </c>
+      <c r="L81" s="0">
+        <f>F81*G81</f>
         <v>19.206</v>
       </c>
     </row>
@@ -10894,13 +10913,13 @@
       <c r="J82">
         <v>29</v>
       </c>
-      <c r="K82">
-        <f t="shared" si="2"/>
-        <v>0.29490834097158569</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="3"/>
-        <v>25.739599999999999</v>
+      <c r="K82" s="0">
+        <f>L82/C82</f>
+        <v>0.294908340971586</v>
+      </c>
+      <c r="L82" s="0">
+        <f>F82*G82</f>
+        <v>25.7396</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -10934,13 +10953,13 @@
       <c r="J83">
         <v>29</v>
       </c>
-      <c r="K83">
-        <f t="shared" si="2"/>
-        <v>0.32841018582243636</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="3"/>
-        <v>28.630800000000004</v>
+      <c r="K83" s="0">
+        <f>L83/C83</f>
+        <v>0.328410185822436</v>
+      </c>
+      <c r="L83" s="0">
+        <f>F83*G83</f>
+        <v>28.6308</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -10963,136 +10982,136 @@
         <v>4.96</v>
       </c>
       <c r="G84">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="H84">
         <v>13.81</v>
       </c>
       <c r="I84">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="J84">
         <v>29</v>
       </c>
-      <c r="K84">
-        <f t="shared" si="2"/>
-        <v>0.24275209835677972</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="3"/>
-        <v>20.534399999999998</v>
+      <c r="K84" s="0">
+        <f>L84/C84</f>
+        <v>0.24275209835678</v>
+      </c>
+      <c r="L84" s="0">
+        <f>F84*G84</f>
+        <v>20.5344</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>35</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <f>AVERAGE(C76:C79)</f>
-        <v>89.410000000000011</v>
+        <v>89.41</v>
       </c>
       <c r="J85">
         <v>18</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="0">
         <f>AVERAGE(K3:K40)</f>
-        <v>0.27019959014403389</v>
+        <v>0.270199590144034</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>29</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <f>AVERAGE(C80:C84)</f>
-        <v>86.233999999999995</v>
+        <v>86.234</v>
       </c>
       <c r="J86">
         <v>35</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="0">
         <f>AVERAGE(K76:K79)</f>
-        <v>0.28284581457356617</v>
+        <v>0.282845814573566</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>11</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0">
         <f>AVERAGE(C69:C75)</f>
-        <v>86.827142857142846</v>
+        <v>86.8271428571428</v>
       </c>
       <c r="J87">
         <v>29</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="0">
         <f>AVERAGE(K80:K84)</f>
-        <v>0.28039040491797707</v>
+        <v>0.280390404917977</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>21</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0">
         <f>AVERAGE(C66:C68)</f>
-        <v>89.663333333333341</v>
+        <v>89.6633333333333</v>
       </c>
       <c r="J88">
         <v>11</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="0">
         <f>AVERAGE(K69:K75)</f>
-        <v>0.25773306024891124</v>
+        <v>0.257733060248911</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>16</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0">
         <f>AVERAGE(C47:C65)</f>
-        <v>87.97999999999999</v>
+        <v>87.98</v>
       </c>
       <c r="J89">
         <v>21</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="0">
         <f>AVERAGE(K66:K68)</f>
-        <v>0.28300061913590685</v>
+        <v>0.283000619135907</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>9</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <f>AVERAGE(C43:C46)</f>
-        <v>90.277499999999989</v>
+        <v>90.2775</v>
       </c>
       <c r="J90">
         <v>16</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="0">
         <f>AVERAGE(K47:K65)</f>
-        <v>0.26459615189732982</v>
+        <v>0.26459615189733</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>18</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <f>AVERAGE(C3:C42)</f>
-        <v>88.055750000000018</v>
+        <v>88.05575</v>
       </c>
       <c r="J91">
         <v>9</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="0">
         <f>AVERAGE(K43:K46)</f>
-        <v>0.24359246673135992</v>
+        <v>0.24359246673136</v>
       </c>
     </row>
   </sheetData>
@@ -11103,13 +11122,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetData>
+</sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
